--- a/Predictions_QWEN0.5B/wave1234_all_predictions/finetuned_predictions_imputedw1234.xlsx
+++ b/Predictions_QWEN0.5B/wave1234_all_predictions/finetuned_predictions_imputedw1234.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhD_Yearwise_Materials\PhD Year 3 Materials\NLPOR 2025\LLM-NLPOR-Work\Predictions_QWEN0.5B\wave1234_all_predictions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC796B83-8DFA-47DD-8F3F-A3DC412DB556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C97548F-C9C6-45D9-A848-050297832799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId2"/>
+    <pivotCache cacheId="0" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="14">
   <si>
     <t>Predicted_Label</t>
   </si>
@@ -69,6 +69,15 @@
   </si>
   <si>
     <t>accuracy</t>
+  </si>
+  <si>
+    <t>f_0</t>
+  </si>
+  <si>
+    <t>f_c</t>
+  </si>
+  <si>
+    <t>Sigma_k</t>
   </si>
 </sst>
 </file>
@@ -2529,7 +2538,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3CB4857D-7049-49D7-ACC6-24BE3E650CB5}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3CB4857D-7049-49D7-ACC6-24BE3E650CB5}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="E3:I8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
@@ -2886,7 +2895,7 @@
   <dimension ref="A1:I586"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3068,6 +3077,13 @@
         <f>2*(312*101-6*166)/(107*318+267*478)</f>
         <v>0.37755177789325217</v>
       </c>
+      <c r="H13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13">
+        <f>312+101</f>
+        <v>413</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
@@ -3083,6 +3099,13 @@
         <f>(312+101)/585</f>
         <v>0.70598290598290603</v>
       </c>
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14">
+        <f>(478*318/585)+(107*267/585)</f>
+        <v>308.67179487179487</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
@@ -3098,6 +3121,13 @@
       </c>
       <c r="B16" t="s">
         <v>3</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16">
+        <f>SQRT(I13*(1-(I13/585)))/(585-I14)</f>
+        <v>3.9878250778138898E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
